--- a/Testing/TestCases_Reserve.xlsx
+++ b/Testing/TestCases_Reserve.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI\Courses\7- QA\Workshop\TC\Reserve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsan\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>Test Title</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>Car shouldn't be found in available car list</t>
-  </si>
-  <si>
-    <t>Verifing that your reserved car is hiddent from available car list</t>
   </si>
   <si>
     <t>Verifing that you resrevation of a car decreases number of available cars</t>
@@ -211,6 +208,40 @@
   </si>
   <si>
     <t>Available car number increases by one</t>
+  </si>
+  <si>
+    <t>SRS_218</t>
+  </si>
+  <si>
+    <t>SRS_219</t>
+  </si>
+  <si>
+    <t>SRS_222</t>
+  </si>
+  <si>
+    <t>SRS_223</t>
+  </si>
+  <si>
+    <t>Verifing that your reserved car is hidden from available car list</t>
+  </si>
+  <si>
+    <t>SRS_220,
+SRS_221</t>
+  </si>
+  <si>
+    <t>SRS_224</t>
+  </si>
+  <si>
+    <t>SRS_225</t>
+  </si>
+  <si>
+    <t>SRS_226</t>
+  </si>
+  <si>
+    <t>SRS_227</t>
+  </si>
+  <si>
+    <t>SRS_228</t>
   </si>
 </sst>
 </file>
@@ -377,112 +408,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <fill>
         <patternFill>
@@ -992,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,7 +966,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1048,10 +976,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
@@ -1067,7 +995,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1075,7 +1005,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
@@ -1094,7 +1024,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1102,7 +1034,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1121,15 +1053,17 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>30</v>
@@ -1148,15 +1082,17 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1165,7 +1101,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>7</v>
@@ -1175,15 +1111,17 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1192,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>7</v>
@@ -1202,24 +1140,26 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>7</v>
@@ -1234,19 +1174,19 @@
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>7</v>
@@ -1256,24 +1196,26 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>7</v>
@@ -1283,24 +1225,26 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>7</v>
@@ -1310,24 +1254,26 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>7</v>
@@ -1342,123 +1288,123 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="52" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="53" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="54" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="41" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="29" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="30" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="27" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="23" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="24" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="20" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="21" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Testing/TestCases_Reserve.xlsx
+++ b/Testing/TestCases_Reserve.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsan\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ebrahem\ITI45\Car-Purchasing\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD66065-B9A6-4962-AFB1-F70BA50C1382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7632"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
   <si>
     <t>Test Title</t>
   </si>
@@ -102,9 +103,6 @@
   </si>
   <si>
     <t>TC_Reserve_010</t>
-  </si>
-  <si>
-    <t>TC_Reserve_011</t>
   </si>
   <si>
     <t>Verifing that you can resereve a listed car</t>
@@ -207,47 +205,42 @@
     <t>Find previously resreved car available for resrevation</t>
   </si>
   <si>
-    <t>Available car number increases by one</t>
-  </si>
-  <si>
-    <t>SRS_218</t>
-  </si>
-  <si>
-    <t>SRS_219</t>
-  </si>
-  <si>
-    <t>SRS_222</t>
-  </si>
-  <si>
-    <t>SRS_223</t>
-  </si>
-  <si>
     <t>Verifing that your reserved car is hidden from available car list</t>
   </si>
   <si>
-    <t>SRS_220,
-SRS_221</t>
-  </si>
-  <si>
-    <t>SRS_224</t>
-  </si>
-  <si>
-    <t>SRS_225</t>
-  </si>
-  <si>
-    <t>SRS_226</t>
-  </si>
-  <si>
-    <t>SRS_227</t>
-  </si>
-  <si>
-    <t>SRS_228</t>
+    <t>SRS_202</t>
+  </si>
+  <si>
+    <t>SRS_203</t>
+  </si>
+  <si>
+    <t>SRS_204,
+SRS_205</t>
+  </si>
+  <si>
+    <t>SRS_206</t>
+  </si>
+  <si>
+    <t>SRS_207</t>
+  </si>
+  <si>
+    <t>SRS_208</t>
+  </si>
+  <si>
+    <t>SRS_209</t>
+  </si>
+  <si>
+    <t>SRS_210</t>
+  </si>
+  <si>
+    <t>SRS_211,
+SRS_212</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,217 +401,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -915,11 +698,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,7 +750,7 @@
     </row>
     <row r="4" spans="1:9" ht="78" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -976,10 +759,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
@@ -996,7 +779,7 @@
     </row>
     <row r="5" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -1005,7 +788,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
@@ -1025,25 +808,25 @@
     </row>
     <row r="6" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>7</v>
@@ -1060,19 +843,19 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>7</v>
@@ -1089,19 +872,19 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>7</v>
@@ -1112,25 +895,25 @@
     </row>
     <row r="9" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>7</v>
@@ -1141,25 +924,25 @@
     </row>
     <row r="10" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>7</v>
@@ -1174,19 +957,19 @@
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>7</v>
@@ -1197,25 +980,25 @@
     </row>
     <row r="12" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>7</v>
@@ -1226,25 +1009,25 @@
     </row>
     <row r="13" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>7</v>
@@ -1253,163 +1036,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>7</v>
-      </c>
+    <row r="14" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="32" priority="52" operator="equal">
+  <conditionalFormatting sqref="I4:I14">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="54" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="29" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="30" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="27" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="23" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="24" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="20" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="21" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Passed,Failed,Pending"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Testing/TestCases_Reserve.xlsx
+++ b/Testing/TestCases_Reserve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ebrahem\ITI45\Car-Purchasing\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD66065-B9A6-4962-AFB1-F70BA50C1382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC0000B-AC02-45A5-A77A-B5962559AF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>Test Title</t>
   </si>
@@ -235,6 +235,9 @@
   <si>
     <t>SRS_211,
 SRS_212</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -701,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,11 +802,11 @@
       <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
@@ -828,11 +831,11 @@
       <c r="G6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>7</v>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
@@ -857,11 +860,11 @@
       <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="78" x14ac:dyDescent="0.3">
@@ -886,11 +889,11 @@
       <c r="G8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
@@ -915,11 +918,11 @@
       <c r="G9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>7</v>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
@@ -944,11 +947,11 @@
       <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
+      <c r="H10" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
@@ -971,11 +974,11 @@
       <c r="G11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>7</v>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
@@ -1000,11 +1003,11 @@
       <c r="G12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>7</v>
+      <c r="H12" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
@@ -1029,11 +1032,11 @@
       <c r="G13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>7</v>
+      <c r="H13" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">

--- a/Testing/TestCases_Reserve.xlsx
+++ b/Testing/TestCases_Reserve.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ebrahem\ITI45\Car-Purchasing\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC0000B-AC02-45A5-A77A-B5962559AF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3629A520-A154-481F-8335-DE3A731A8B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -704,25 +704,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="46.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="5" max="5" width="45.88671875" customWidth="1"/>
-    <col min="6" max="6" width="46.6640625" customWidth="1"/>
-    <col min="7" max="7" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
+    <col min="6" max="6" width="46.7109375" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -751,7 +751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -777,10 +777,10 @@
         <v>7</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -809,7 +809,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
@@ -838,7 +838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
@@ -867,7 +867,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
@@ -896,7 +896,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
@@ -925,7 +925,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
@@ -954,7 +954,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -981,7 +981,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>59</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
